--- a/biology/Médecine/Johann_Georg_Zimmermann/Johann_Georg_Zimmermann.xlsx
+++ b/biology/Médecine/Johann_Georg_Zimmermann/Johann_Georg_Zimmermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Georg Zimmermann, né le 8 octobre 1728 à Brugg et mort le 7 octobre 1795 à Hanovre, est un médecin, botaniste et philosophe suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zimmermann fait ses études à Göttingen. Il est l’élève d’Albrecht von Haller (1708-1777). Il obtient son doctorat en 1755 avec une thèse intitulée (la) Dissertatio physiologica de irritabilitate. Il voyage ensuite aux Pays-Bas et en France où, à Paris, il devient l’ami de Jean-Baptiste Sénac (1693-1770), médecin du roi Louis XV. Il tient une correspondance avec l’impératrice Catherine II mais refuse son invitation à Moscou.
 De retour à Berne, il fait paraître une biographie de Haller sous le titre de (de) Leben des Herrn von Haller (Zurich, 1755). Il s'installe ensuite à Brugg, où il devient médecin de la ville. Il commence alors à travailler sur son ouvrage qui allait le rendre célèbre, (de) Betrachtungen über die Einsamkeit (Réflexions sur la solitude) dont une première version paraît à Zurich en 1756. Cet ouvrage, que Zimmermann va enrichir durant trente ans, sera maintes fois réédité, notamment à Paris grâce à deux traductions différentes. Il faut également citer son étude de la dysenterie : (de) Von der Ruhr unter dem Volke im Jahre 1765 (Zurich, 1767, traduit en français en 1775).
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éditions princeps
 (la)Dissertatio physiologica de irritabilitate (1751).
